--- a/wasmjam.xlsx
+++ b/wasmjam.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>title</t>
   </si>
@@ -28,25 +28,58 @@
     <t>github</t>
   </si>
   <si>
+    <t>assemblyscript</t>
+  </si>
+  <si>
+    <t>A TypeScript-like language for WebAssembly</t>
+  </si>
+  <si>
+    <t>compiler</t>
+  </si>
+  <si>
+    <t>AssemblyScript/assemblyscript</t>
+  </si>
+  <si>
+    <t>Bytecoder</t>
+  </si>
+  <si>
+    <t>Framework to interpret and transpile JVM bytecode to JavaScript, OpenCL or WebAssembly.</t>
+  </si>
+  <si>
+    <t>WebAssembly/binaryen</t>
+  </si>
+  <si>
+    <t>binaryen</t>
+  </si>
+  <si>
+    <t>Optimizer and compiler/toolchain library for WebAssembly</t>
+  </si>
+  <si>
+    <t>cheerp-compiler</t>
+  </si>
+  <si>
+    <t>C++ to JavaScript/WebAssembly compiler</t>
+  </si>
+  <si>
+    <t>leaningtech/cheerp-compiler</t>
+  </si>
+  <si>
     <t>emscripten-core</t>
   </si>
   <si>
     <t>Emscripten: An LLVM-to-WebAssembly Compiler</t>
   </si>
   <si>
-    <t>compiler</t>
-  </si>
-  <si>
     <t>emscripten-core/emscripten</t>
   </si>
   <si>
-    <t>binaryen</t>
-  </si>
-  <si>
-    <t>Optimizer and compiler/toolchain library for WebAssembly</t>
-  </si>
-  <si>
-    <t>WebAssembly/binaryen</t>
+    <t>JWebAssembly</t>
+  </si>
+  <si>
+    <t>Java bytecode to WebAssembly compiler</t>
+  </si>
+  <si>
+    <t>i-net-software/JWebAssembly</t>
   </si>
   <si>
     <t>tinygo</t>
@@ -58,29 +91,56 @@
     <t>tinygo-org/tinygo</t>
   </si>
   <si>
-    <t>Bytecoder</t>
-  </si>
-  <si>
-    <t>Framework to interpret and transpile JVM bytecode to JavaScript, OpenCL or WebAssembly.</t>
-  </si>
-  <si>
-    <t>mirkosertic/Bytecoder</t>
-  </si>
-  <si>
-    <t>assemblyscript</t>
-  </si>
-  <si>
-    <t>A TypeScript-like language for WebAssembly</t>
-  </si>
-  <si>
-    <t>AssemblyScript/assemblyscript</t>
+    <t>waforth</t>
+  </si>
+  <si>
+    <t>Small but complete dynamic Forth Interpreter/Compiler for and in WebAssembly</t>
+  </si>
+  <si>
+    <t>remko/waforth</t>
+  </si>
+  <si>
+    <t>wasmtime</t>
+  </si>
+  <si>
+    <t>WebAssembly Profiler based on Wazero</t>
+  </si>
+  <si>
+    <t>profiler</t>
+  </si>
+  <si>
+    <t>bytecodealliance/wasmtime</t>
+  </si>
+  <si>
+    <t>wasm-score</t>
+  </si>
+  <si>
+    <t>A benchmark for standalone WebAssembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benchmark </t>
+  </si>
+  <si>
+    <t>bytecodealliance/wasm-score</t>
+  </si>
+  <si>
+    <t>wabt</t>
+  </si>
+  <si>
+    <t>The WebAssembly Binary Toolkit</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>WebAssembly/wabt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -92,29 +152,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF1F2328"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,20 +167,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -358,7 +393,7 @@
     <col customWidth="1" min="1" max="1" width="13.0"/>
     <col customWidth="1" min="2" max="2" width="3.5"/>
     <col customWidth="1" min="3" max="3" width="89.38"/>
-    <col customWidth="1" min="4" max="4" width="7.25"/>
+    <col customWidth="1" min="4" max="4" width="9.75"/>
     <col customWidth="1" min="5" max="5" width="24.0"/>
   </cols>
   <sheetData>
@@ -397,13 +432,13 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -418,35 +453,119 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
